--- a/upload/xls/import_help_user.xlsx
+++ b/upload/xls/import_help_user.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23895" windowHeight="10350"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,14 +16,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
   <si>
     <t>姓名</t>
   </si>
   <si>
+    <t>年龄</t>
+  </si>
+  <si>
     <t>性别</t>
   </si>
   <si>
+    <t>头像</t>
+  </si>
+  <si>
     <t>电话</t>
   </si>
   <si>
@@ -45,12 +51,15 @@
     <t>简介</t>
   </si>
   <si>
-    <t>案例1</t>
+    <t>阳城县</t>
   </si>
   <si>
     <t>男</t>
   </si>
   <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
     <t>42413257@qq.com</t>
   </si>
   <si>
@@ -60,13 +69,16 @@
     <t>法律咨询,刑事诉讼</t>
   </si>
   <si>
-    <t>成华区</t>
+    <t>四川 广安 邻水</t>
   </si>
   <si>
     <t>桂溪街道</t>
   </si>
   <si>
-    <t>案例2</t>
+    <t>阿道夫阳光和容光焕发</t>
+  </si>
+  <si>
+    <t>王强桂</t>
   </si>
   <si>
     <t>24564564@qq.com</t>
@@ -76,6 +88,9 @@
   </si>
   <si>
     <t>民事纠纷</t>
+  </si>
+  <si>
+    <t>蛋黄粉就是的</t>
   </si>
 </sst>
 </file>
@@ -84,9 +99,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -107,37 +122,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -166,6 +150,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -219,23 +234,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,187 +271,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -555,145 +570,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -761,6 +776,87 @@
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1153160</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>841375</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1" descr="u=182404716,1014672905&amp;fm=116&amp;gp=0"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5057775" y="336550"/>
+          <a:ext cx="810260" cy="822325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1172210</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1003300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2" descr="u=182404716,1014672905&amp;fm=116&amp;gp=0"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5076825" y="1489075"/>
+          <a:ext cx="810260" cy="822325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1051,18 +1147,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="17" width="20.625" customWidth="1"/>
+    <col min="1" max="19" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25" customHeight="1" spans="1:9">
+    <row r="1" ht="25" customHeight="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1090,57 +1186,78 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" ht="25" customHeight="1" spans="1:8">
+    <row r="2" ht="78" customHeight="1" spans="1:11">
       <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2">
         <v>15825745742</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" ht="96" customHeight="1" spans="1:11">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" ht="25" customHeight="1" spans="1:8">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3">
+      <c r="E3">
         <v>13558454425</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" t="s">
+      <c r="J3" t="s">
         <v>18</v>
       </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" t="s">
-        <v>15</v>
+      <c r="K3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="4" ht="25" customHeight="1"/>
@@ -1175,12 +1292,13 @@
     <row r="33" ht="25" customHeight="1"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="42413257@qq.com"/>
-    <hyperlink ref="D3" r:id="rId2" display="24564564@qq.com"/>
+    <hyperlink ref="F2" r:id="rId2" display="42413257@qq.com"/>
+    <hyperlink ref="F3" r:id="rId3" display="24564564@qq.com"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
